--- a/20200518/5120/ADEV对比.xlsx
+++ b/20200518/5120/ADEV对比.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>驯服前ADEV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>驯服后理想TDEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯服后钟差ADEV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -85,6 +89,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C15"/>
+      <selection activeCell="F5" sqref="F5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,9 +383,10 @@
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +399,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
@@ -405,7 +414,7 @@
         <v>2.849E-11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -416,7 +425,7 @@
         <v>2.4600000000000001E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.4</v>
       </c>
@@ -427,7 +436,7 @@
         <v>2.0520000000000001E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -444,8 +453,11 @@
         <f>C5/1.732</f>
         <v>1.1033487297921477E-11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>4.2299999999999999E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -462,8 +474,11 @@
         <f t="shared" ref="E6:E15" si="0">C6/1.732</f>
         <v>1.1212471131639722E-11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>2.5299999999999999E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -480,8 +495,11 @@
         <f t="shared" si="0"/>
         <v>1.1039260969976906E-11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>1.9999999999999999E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -498,8 +516,11 @@
         <f t="shared" si="0"/>
         <v>5.8314087759815239E-12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>9.2400000000000002E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -516,8 +537,11 @@
         <f t="shared" si="0"/>
         <v>2.5230946882217092E-12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>3.8700000000000003E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40</v>
       </c>
@@ -534,8 +558,11 @@
         <f t="shared" si="0"/>
         <v>1.3799076212471132E-12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>1.95E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -552,8 +579,11 @@
         <f t="shared" si="0"/>
         <v>5.3117782909930711E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>7.6899999999999995E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -570,8 +600,11 @@
         <f t="shared" si="0"/>
         <v>2.7136258660508084E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>4.4600000000000002E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>400</v>
       </c>
@@ -588,8 +621,11 @@
         <f t="shared" si="0"/>
         <v>1.4549653579676674E-13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>2.2E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1000</v>
       </c>
@@ -606,8 +642,11 @@
         <f t="shared" si="0"/>
         <v>4.3879907621247119E-14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>7.1400000000000004E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2000</v>
       </c>
@@ -624,8 +663,11 @@
         <f t="shared" si="0"/>
         <v>2.3672055427251734E-14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>2.9999999999999998E-14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4000</v>
       </c>
